--- a/output/ValueSet-NetworkTypeVS.xlsx
+++ b/output/ValueSet-NetworkTypeVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:08:13-05:00</t>
+    <t>2021-11-29T12:19:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-NetworkTypeVS.xlsx
+++ b/output/ValueSet-NetworkTypeVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-NetworkTypeVS.xlsx
+++ b/output/ValueSet-NetworkTypeVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-NetworkTypeVS.xlsx
+++ b/output/ValueSet-NetworkTypeVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-NetworkTypeVS.xlsx
+++ b/output/ValueSet-NetworkTypeVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/NetworkTypeVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/NetworkTypeVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/CodeSystem/OrgTypeCS</t>
+    <t>http://hl7.org/fhir/us/national-directory/CodeSystem/OrgTypeCS</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-NetworkTypeVS.xlsx
+++ b/output/ValueSet-NetworkTypeVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-NetworkTypeVS.xlsx
+++ b/output/ValueSet-NetworkTypeVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/NetworkTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/NetworkTypeVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/CodeSystem/OrgTypeCS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/CodeSystem/OrgTypeCS</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-NetworkTypeVS.xlsx
+++ b/output/ValueSet-NetworkTypeVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/NetworkTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/NetworkTypeVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/CodeSystem/OrgTypeCS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/CodeSystem/OrgTypeCS</t>
   </si>
 </sst>
 </file>
